--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid657195"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid818498"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid818498"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid888570"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>06/05/2024</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>04/04/2024</t>
@@ -593,18 +596,18 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -659,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -670,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -703,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -725,18 +728,18 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -824,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -835,7 +838,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -846,7 +849,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -857,7 +860,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -868,7 +871,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -879,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -890,7 +893,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -901,7 +904,18 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid888570"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid828311"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid828311"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid301476"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>05/06/2024</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>06/05/2024</t>
@@ -607,18 +610,18 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -684,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -717,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +731,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -739,18 +742,18 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -838,7 +841,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -849,7 +852,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -860,7 +863,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -871,7 +874,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -882,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -893,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -904,7 +907,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -915,7 +918,18 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid301476"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid589715"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>03/07/2024</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>05/06/2024</t>
@@ -621,18 +624,18 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -687,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -698,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -709,7 +712,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +734,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -742,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -753,18 +756,18 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -852,7 +855,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -863,7 +866,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -874,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -885,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -896,7 +899,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -907,7 +910,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -918,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -929,7 +932,18 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid123460"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid153268"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,142 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>04/09/2024</t>
   </si>
   <si>
-    <t>0.003</t>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>06/05/2024</t>
+  </si>
+  <si>
+    <t>04/04/2024</t>
+  </si>
+  <si>
+    <t>05/03/2024</t>
+  </si>
+  <si>
+    <t>05/02/2024</t>
+  </si>
+  <si>
+    <t>04/01/2024</t>
+  </si>
+  <si>
+    <t>05/12/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>04/10/2023</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>05/07/2023</t>
+  </si>
+  <si>
+    <t>06/06/2023</t>
+  </si>
+  <si>
+    <t>04/05/2023</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t>03/03/2023</t>
+  </si>
+  <si>
+    <t>03/02/2023</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>05/12/2022</t>
+  </si>
+  <si>
+    <t>03/11/2022</t>
+  </si>
+  <si>
+    <t>05/10/2022</t>
+  </si>
+  <si>
+    <t>05/09/2022</t>
+  </si>
+  <si>
+    <t>03/08/2022</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>05/07/2022</t>
+  </si>
+  <si>
+    <t>03/06/2022</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>05/04/2022</t>
+  </si>
+  <si>
+    <t>03/03/2022</t>
+  </si>
+  <si>
+    <t>07/02/2022</t>
+  </si>
+  <si>
+    <t>05/01/2022</t>
+  </si>
+  <si>
+    <t>03/12/2021</t>
+  </si>
+  <si>
+    <t>03/11/2021</t>
+  </si>
+  <si>
+    <t>05/10/2021</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>03/06/2021</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
+    <t>06/04/2021</t>
   </si>
 </sst>
 </file>
@@ -380,6 +512,468 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid153268"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid501526"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>05/11/2024</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>03/10/2024</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>04/09/2024</t>
@@ -663,18 +666,18 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -729,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -740,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -751,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -762,7 +765,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -773,7 +776,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -784,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -795,18 +798,18 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -894,7 +897,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -905,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -916,7 +919,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -927,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -938,7 +941,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -949,7 +952,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -960,7 +963,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -971,7 +974,18 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid501526"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid54639"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,22 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>05/03/2025</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
     <t>05/11/2024</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>03/10/2024</t>
@@ -677,15 +689,15 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -693,10 +705,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -704,10 +716,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -715,13 +727,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -743,7 +755,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -754,7 +766,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -765,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +788,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -787,7 +799,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +810,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -809,51 +821,51 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -908,7 +920,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -919,7 +931,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -930,7 +942,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -941,7 +953,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -952,7 +964,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -963,7 +975,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -974,7 +986,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -985,7 +997,51 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid54639"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid978955"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid978955"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid116296"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>05/03/2025</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>05/02/2025</t>
@@ -733,18 +736,18 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +802,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -810,7 +813,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -821,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +835,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -843,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -854,7 +857,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -865,18 +868,18 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
         <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -964,7 +967,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -975,7 +978,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -986,7 +989,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -997,7 +1000,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -1008,7 +1011,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -1019,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -1030,7 +1033,7 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -1041,7 +1044,18 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid116296"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid548396"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>03/04/2025</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>05/03/2025</t>
@@ -747,18 +750,18 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -813,7 +816,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -824,7 +827,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -835,7 +838,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -857,7 +860,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -868,7 +871,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -879,18 +882,18 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -978,7 +981,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -989,7 +992,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -1000,7 +1003,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -1011,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -1022,7 +1025,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -1033,7 +1036,7 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -1044,7 +1047,7 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1055,7 +1058,18 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid548396"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid359650"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>06/05/2025</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>03/04/2025</t>
@@ -761,18 +764,18 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -827,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -838,7 +841,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -849,7 +852,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +863,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -871,7 +874,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -882,7 +885,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -893,18 +896,18 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -992,7 +995,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1003,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -1014,7 +1017,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -1025,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -1036,7 +1039,7 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
@@ -1047,7 +1050,7 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -1058,7 +1061,7 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1069,7 +1072,18 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid359650"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid36518"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>04/06/2025</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>06/05/2025</t>
@@ -775,18 +778,18 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -841,7 +844,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +855,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -863,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -885,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -896,7 +899,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -907,18 +910,18 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1006,7 +1009,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1017,7 +1020,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -1028,7 +1031,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -1039,7 +1042,7 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -1050,7 +1053,7 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -1061,7 +1064,7 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
@@ -1072,7 +1075,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -1083,7 +1086,18 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid36518"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid856384"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>XD Date</t>
   </si>
@@ -24,6 +24,12 @@
   </si>
   <si>
     <t>Gross Dividend</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
+  </si>
+  <si>
+    <t>0.002</t>
   </si>
   <si>
     <t>03/07/2025</t>
@@ -547,249 +553,249 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -800,128 +806,128 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -932,172 +938,183 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid856384"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid904413"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,16 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
     <t>05/08/2025</t>
-  </si>
-  <si>
-    <t>0.002</t>
   </si>
   <si>
     <t>03/07/2025</t>
@@ -553,29 +559,29 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -608,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -630,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -641,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -652,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -674,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -685,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -696,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -707,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -718,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -729,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -740,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -751,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -773,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -784,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -795,7 +801,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -806,29 +812,29 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +845,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -850,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -861,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -872,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -883,7 +889,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -894,7 +900,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -905,7 +911,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +922,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -927,7 +933,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -938,29 +944,29 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
         <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +977,7 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -982,7 +988,7 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +999,7 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +1010,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1015,7 +1021,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1026,7 +1032,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1037,7 +1043,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1048,7 +1054,7 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1059,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -1070,7 +1076,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -1081,7 +1087,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -1092,7 +1098,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -1103,7 +1109,7 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -1114,7 +1120,29 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid904413"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid180757"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid180757"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid121458"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
     <t>03/10/2025</t>
-  </si>
-  <si>
-    <t>0.002</t>
   </si>
   <si>
     <t>04/09/2025</t>
@@ -581,18 +584,18 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -603,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -614,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -636,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -647,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -658,7 +661,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -680,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -691,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -702,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -713,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -746,7 +749,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -757,7 +760,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -768,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -779,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -790,7 +793,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -801,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -812,7 +815,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -823,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -834,18 +837,18 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -856,7 +859,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +870,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -878,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -889,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -900,7 +903,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -911,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -922,7 +925,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -933,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +947,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -955,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -966,18 +969,18 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
         <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -988,7 +991,7 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -999,7 +1002,7 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -1021,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1035,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -1043,7 +1046,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -1054,7 +1057,7 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -1065,7 +1068,7 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1076,7 +1079,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -1087,7 +1090,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -1098,7 +1101,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -1109,7 +1112,7 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -1120,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -1131,7 +1134,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -1142,7 +1145,18 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid121458"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid188120"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
     <t>05/11/2025</t>
-  </si>
-  <si>
-    <t>0.002</t>
   </si>
   <si>
     <t>03/10/2025</t>
@@ -595,18 +598,18 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -617,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -650,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -683,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -694,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -705,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -716,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -727,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -738,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -749,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -760,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -771,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -782,7 +785,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -793,7 +796,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -804,7 +807,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -815,7 +818,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -826,7 +829,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -837,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -848,18 +851,18 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -870,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -892,7 +895,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -903,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -914,7 +917,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -925,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -936,7 +939,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -947,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +961,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -969,7 +972,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -980,18 +983,18 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
         <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1002,7 +1005,7 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1013,7 +1016,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1024,7 +1027,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1035,7 +1038,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1046,7 +1049,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1057,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1068,7 +1071,7 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1082,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1090,7 +1093,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -1101,7 +1104,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -1112,7 +1115,7 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -1123,7 +1126,7 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -1134,7 +1137,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -1145,7 +1148,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -1156,7 +1159,18 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Bond_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid188120"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid786099"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,6 +26,12 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>06/01/2026</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>03/12/2025</t>
   </si>
   <si>
@@ -45,9 +51,6 @@
   </si>
   <si>
     <t>03/07/2025</t>
-  </si>
-  <si>
-    <t>0.003</t>
   </si>
   <si>
     <t>04/06/2025</t>
@@ -565,51 +568,51 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -620,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -653,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -664,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -675,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +689,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -697,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -708,7 +711,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -719,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -730,7 +733,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +744,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -752,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -763,7 +766,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -774,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -785,7 +788,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -796,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +810,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -818,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -829,7 +832,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -840,7 +843,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -851,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -862,18 +865,18 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -884,7 +887,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -906,7 +909,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -917,7 +920,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -928,7 +931,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -939,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -950,7 +953,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -961,7 +964,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -983,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -994,18 +997,18 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
         <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1019,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1030,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1041,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1049,7 +1052,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1060,7 +1063,7 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1074,7 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1082,7 +1085,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1104,7 +1107,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -1115,7 +1118,7 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -1126,7 +1129,7 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -1137,7 +1140,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -1148,7 +1151,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -1159,7 +1162,7 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
@@ -1170,7 +1173,18 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
